--- a/Arduino_Mega_datalogger.xlsx
+++ b/Arduino_Mega_datalogger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerioraminelli/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerioraminelli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D5D1FA-A6B4-CE45-9701-6D71F1DCFE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CFB3A5-9440-5344-AD17-5A2E2325E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{967412E7-AFF2-D141-8729-C978B612E24A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17040" xr2:uid="{967412E7-AFF2-D141-8729-C978B612E24A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Arduino Mega Pin setting:</t>
   </si>
@@ -41,9 +41,6 @@
     <t>MEGA + DataLogger Shield OLD Version</t>
   </si>
   <si>
-    <t>DHT11 Temperature, Humidity and heatindex</t>
-  </si>
-  <si>
     <t xml:space="preserve">LCD Display with data serializer </t>
   </si>
   <si>
@@ -78,13 +75,22 @@
   </si>
   <si>
     <t xml:space="preserve">SDA </t>
+  </si>
+  <si>
+    <t>SCD serializer</t>
+  </si>
+  <si>
+    <t>DHT11 o DHT Temperature, Humidity and heatindex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTYPE DHT21   // AM2301 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF339900"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,13 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -158,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557BD44E-6E58-4D49-9A35-A2BE7F9E3132}">
-  <dimension ref="C3:E21"/>
+  <dimension ref="C3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,100 +491,103 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E17" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
